--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +95,6 @@
   </si>
   <si>
     <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.942619825665842</v>
+        <v>1.123723333333333</v>
       </c>
       <c r="N2">
-        <v>0.942619825665842</v>
+        <v>3.37117</v>
       </c>
       <c r="O2">
-        <v>0.08219758548038701</v>
+        <v>0.08746835950791242</v>
       </c>
       <c r="P2">
-        <v>0.08219758548038701</v>
+        <v>0.09211404964065718</v>
       </c>
       <c r="Q2">
-        <v>10.35392874045366</v>
+        <v>0.7872918045666666</v>
       </c>
       <c r="R2">
-        <v>10.35392874045366</v>
+        <v>7.0856262411</v>
       </c>
       <c r="S2">
-        <v>0.06016715047590739</v>
+        <v>0.003528976460920309</v>
       </c>
       <c r="T2">
-        <v>0.06016715047590739</v>
+        <v>0.004045865770003302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.60509601749707</v>
+        <v>9.158776666666666</v>
       </c>
       <c r="N3">
-        <v>8.60509601749707</v>
+        <v>27.47633</v>
       </c>
       <c r="O3">
-        <v>0.7503747494017774</v>
+        <v>0.7129007170798385</v>
       </c>
       <c r="P3">
-        <v>0.7503747494017774</v>
+        <v>0.7507648755663696</v>
       </c>
       <c r="Q3">
-        <v>94.52013266004754</v>
+        <v>6.416730520433334</v>
       </c>
       <c r="R3">
-        <v>94.52013266004754</v>
+        <v>57.7505746839</v>
       </c>
       <c r="S3">
-        <v>0.5492607866364966</v>
+        <v>0.0287625132528109</v>
       </c>
       <c r="T3">
-        <v>0.5492607866364966</v>
+        <v>0.03297535960284258</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,185 +649,185 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.9200154795626</v>
+        <v>0.247236</v>
       </c>
       <c r="N4">
-        <v>1.9200154795626</v>
+        <v>0.7417079999999999</v>
       </c>
       <c r="O4">
-        <v>0.1674276651178355</v>
+        <v>0.01924435195908088</v>
       </c>
       <c r="P4">
-        <v>0.1674276651178355</v>
+        <v>0.02026647351835492</v>
       </c>
       <c r="Q4">
-        <v>21.08984228282768</v>
+        <v>0.17321601396</v>
       </c>
       <c r="R4">
-        <v>21.08984228282768</v>
+        <v>1.55894412564</v>
       </c>
       <c r="S4">
-        <v>0.122554031996211</v>
+        <v>0.0007764277900183855</v>
       </c>
       <c r="T4">
-        <v>0.122554031996211</v>
+        <v>0.0008901511963317213</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>4.02190891456284</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>4.02190891456284</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.268018030891385</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.268018030891385</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.942619825665842</v>
+        <v>0.373651</v>
       </c>
       <c r="N5">
-        <v>0.942619825665842</v>
+        <v>1.120953</v>
       </c>
       <c r="O5">
-        <v>0.08219758548038701</v>
+        <v>0.02908424078153073</v>
       </c>
       <c r="P5">
-        <v>0.08219758548038701</v>
+        <v>0.03062898646073725</v>
       </c>
       <c r="Q5">
-        <v>3.791131079889121</v>
+        <v>0.26178362711</v>
       </c>
       <c r="R5">
-        <v>3.791131079889121</v>
+        <v>2.35605264399</v>
       </c>
       <c r="S5">
-        <v>0.02203043500447962</v>
+        <v>0.001173425472698797</v>
       </c>
       <c r="T5">
-        <v>0.02203043500447962</v>
+        <v>0.001345297143864745</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>4.02190891456284</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H6">
-        <v>4.02190891456284</v>
+        <v>2.10183</v>
       </c>
       <c r="I6">
-        <v>0.268018030891385</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J6">
-        <v>0.268018030891385</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.60509601749707</v>
+        <v>1.943811</v>
       </c>
       <c r="N6">
-        <v>8.60509601749707</v>
+        <v>3.887622</v>
       </c>
       <c r="O6">
-        <v>0.7503747494017774</v>
+        <v>0.1513023306716375</v>
       </c>
       <c r="P6">
-        <v>0.7503747494017774</v>
+        <v>0.1062256148138809</v>
       </c>
       <c r="Q6">
-        <v>34.60891238344066</v>
+        <v>1.36185342471</v>
       </c>
       <c r="R6">
-        <v>34.60891238344066</v>
+        <v>8.171120548260001</v>
       </c>
       <c r="S6">
-        <v>0.2011139627652808</v>
+        <v>0.00610440582659252</v>
       </c>
       <c r="T6">
-        <v>0.2011139627652808</v>
+        <v>0.004665678911627648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +835,1239 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H7">
+        <v>35.59684</v>
+      </c>
+      <c r="I7">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J7">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.123723333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.37117</v>
+      </c>
+      <c r="O7">
+        <v>0.08746835950791242</v>
+      </c>
+      <c r="P7">
+        <v>0.09211404964065718</v>
+      </c>
+      <c r="Q7">
+        <v>13.33366656697778</v>
+      </c>
+      <c r="R7">
+        <v>120.0029991028</v>
+      </c>
+      <c r="S7">
+        <v>0.05976716025708382</v>
+      </c>
+      <c r="T7">
+        <v>0.0685212583683192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H8">
+        <v>35.59684</v>
+      </c>
+      <c r="I8">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J8">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>9.158776666666666</v>
+      </c>
+      <c r="N8">
+        <v>27.47633</v>
+      </c>
+      <c r="O8">
+        <v>0.7129007170798385</v>
+      </c>
+      <c r="P8">
+        <v>0.7507648755663696</v>
+      </c>
+      <c r="Q8">
+        <v>108.6745025330222</v>
+      </c>
+      <c r="R8">
+        <v>978.0705227971999</v>
+      </c>
+      <c r="S8">
+        <v>0.4871253061656695</v>
+      </c>
+      <c r="T8">
+        <v>0.5584745672698795</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H9">
+        <v>35.59684</v>
+      </c>
+      <c r="I9">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J9">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.247236</v>
+      </c>
+      <c r="N9">
+        <v>0.7417079999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.01924435195908088</v>
+      </c>
+      <c r="P9">
+        <v>0.02026647351835492</v>
+      </c>
+      <c r="Q9">
+        <v>2.93360677808</v>
+      </c>
+      <c r="R9">
+        <v>26.40246100272</v>
+      </c>
+      <c r="S9">
+        <v>0.01314967233926534</v>
+      </c>
+      <c r="T9">
+        <v>0.01507570531947345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H10">
+        <v>35.59684</v>
+      </c>
+      <c r="I10">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J10">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.373651</v>
+      </c>
+      <c r="N10">
+        <v>1.120953</v>
+      </c>
+      <c r="O10">
+        <v>0.02908424078153073</v>
+      </c>
+      <c r="P10">
+        <v>0.03062898646073725</v>
+      </c>
+      <c r="Q10">
+        <v>4.433598287613334</v>
+      </c>
+      <c r="R10">
+        <v>39.90238458852</v>
+      </c>
+      <c r="S10">
+        <v>0.01987327176964047</v>
+      </c>
+      <c r="T10">
+        <v>0.02278411060010101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H7">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I7">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J7">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>1.9200154795626</v>
-      </c>
-      <c r="N7">
-        <v>1.9200154795626</v>
-      </c>
-      <c r="O7">
-        <v>0.1674276651178355</v>
-      </c>
-      <c r="P7">
-        <v>0.1674276651178355</v>
-      </c>
-      <c r="Q7">
-        <v>7.722127373351468</v>
-      </c>
-      <c r="R7">
-        <v>7.722127373351468</v>
-      </c>
-      <c r="S7">
-        <v>0.0448736331216245</v>
-      </c>
-      <c r="T7">
-        <v>0.0448736331216245</v>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.59684</v>
+      </c>
+      <c r="I11">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J11">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.943811</v>
+      </c>
+      <c r="N11">
+        <v>3.887622</v>
+      </c>
+      <c r="O11">
+        <v>0.1513023306716375</v>
+      </c>
+      <c r="P11">
+        <v>0.1062256148138809</v>
+      </c>
+      <c r="Q11">
+        <v>23.06450971908</v>
+      </c>
+      <c r="R11">
+        <v>138.38705831448</v>
+      </c>
+      <c r="S11">
+        <v>0.1033849347969539</v>
+      </c>
+      <c r="T11">
+        <v>0.07901848660861417</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.123723333333333</v>
+      </c>
+      <c r="N12">
+        <v>3.37117</v>
+      </c>
+      <c r="O12">
+        <v>0.08746835950791242</v>
+      </c>
+      <c r="P12">
+        <v>0.09211404964065718</v>
+      </c>
+      <c r="Q12">
+        <v>0.5137490775755554</v>
+      </c>
+      <c r="R12">
+        <v>4.62374169818</v>
+      </c>
+      <c r="S12">
+        <v>0.002302841705028995</v>
+      </c>
+      <c r="T12">
+        <v>0.002640139012342153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.158776666666666</v>
+      </c>
+      <c r="N13">
+        <v>27.47633</v>
+      </c>
+      <c r="O13">
+        <v>0.7129007170798385</v>
+      </c>
+      <c r="P13">
+        <v>0.7507648755663696</v>
+      </c>
+      <c r="Q13">
+        <v>4.187252257424444</v>
+      </c>
+      <c r="R13">
+        <v>37.68527031682</v>
+      </c>
+      <c r="S13">
+        <v>0.01876904416719991</v>
+      </c>
+      <c r="T13">
+        <v>0.0215181467410386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.371554</v>
+      </c>
+      <c r="I14">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J14">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.247236</v>
+      </c>
+      <c r="N14">
+        <v>0.7417079999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.01924435195908088</v>
+      </c>
+      <c r="P14">
+        <v>0.02026647351835492</v>
+      </c>
+      <c r="Q14">
+        <v>0.113032508248</v>
+      </c>
+      <c r="R14">
+        <v>1.017292574232</v>
+      </c>
+      <c r="S14">
+        <v>0.0005066597398985058</v>
+      </c>
+      <c r="T14">
+        <v>0.000580870210213746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.371554</v>
+      </c>
+      <c r="I15">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J15">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.373651</v>
+      </c>
+      <c r="N15">
+        <v>1.120953</v>
+      </c>
+      <c r="O15">
+        <v>0.02908424078153073</v>
+      </c>
+      <c r="P15">
+        <v>0.03062898646073725</v>
+      </c>
+      <c r="Q15">
+        <v>0.1708275078846667</v>
+      </c>
+      <c r="R15">
+        <v>1.537447570962</v>
+      </c>
+      <c r="S15">
+        <v>0.0007657214906923611</v>
+      </c>
+      <c r="T15">
+        <v>0.0008778767449585676</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.371554</v>
+      </c>
+      <c r="I16">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J16">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.943811</v>
+      </c>
+      <c r="N16">
+        <v>3.887622</v>
+      </c>
+      <c r="O16">
+        <v>0.1513023306716375</v>
+      </c>
+      <c r="P16">
+        <v>0.1062256148138809</v>
+      </c>
+      <c r="Q16">
+        <v>0.888680584098</v>
+      </c>
+      <c r="R16">
+        <v>5.332083504588001</v>
+      </c>
+      <c r="S16">
+        <v>0.003983444060217179</v>
+      </c>
+      <c r="T16">
+        <v>0.003044599503270268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.123723333333333</v>
+      </c>
+      <c r="N17">
+        <v>3.37117</v>
+      </c>
+      <c r="O17">
+        <v>0.08746835950791242</v>
+      </c>
+      <c r="P17">
+        <v>0.09211404964065718</v>
+      </c>
+      <c r="Q17">
+        <v>0.1119250914466667</v>
+      </c>
+      <c r="R17">
+        <v>1.00732582302</v>
+      </c>
+      <c r="S17">
+        <v>0.0005016958271514603</v>
+      </c>
+      <c r="T17">
+        <v>0.0005751792329882087</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.298806</v>
+      </c>
+      <c r="I18">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J18">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>9.158776666666666</v>
+      </c>
+      <c r="N18">
+        <v>27.47633</v>
+      </c>
+      <c r="O18">
+        <v>0.7129007170798385</v>
+      </c>
+      <c r="P18">
+        <v>0.7507648755663696</v>
+      </c>
+      <c r="Q18">
+        <v>0.9122324735533334</v>
+      </c>
+      <c r="R18">
+        <v>8.21009226198</v>
+      </c>
+      <c r="S18">
+        <v>0.004089013638124593</v>
+      </c>
+      <c r="T18">
+        <v>0.0046879316126837</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.298806</v>
+      </c>
+      <c r="I19">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J19">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.247236</v>
+      </c>
+      <c r="N19">
+        <v>0.7417079999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.01924435195908088</v>
+      </c>
+      <c r="P19">
+        <v>0.02026647351835492</v>
+      </c>
+      <c r="Q19">
+        <v>0.024625200072</v>
+      </c>
+      <c r="R19">
+        <v>0.221626800648</v>
+      </c>
+      <c r="S19">
+        <v>0.0001103806122399212</v>
+      </c>
+      <c r="T19">
+        <v>0.0001265480644824255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.298806</v>
+      </c>
+      <c r="I20">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J20">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.373651</v>
+      </c>
+      <c r="N20">
+        <v>1.120953</v>
+      </c>
+      <c r="O20">
+        <v>0.02908424078153073</v>
+      </c>
+      <c r="P20">
+        <v>0.03062898646073725</v>
+      </c>
+      <c r="Q20">
+        <v>0.03721638690200001</v>
+      </c>
+      <c r="R20">
+        <v>0.334947482118</v>
+      </c>
+      <c r="S20">
+        <v>0.000166819662767796</v>
+      </c>
+      <c r="T20">
+        <v>0.0001912537447698667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.298806</v>
+      </c>
+      <c r="I21">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J21">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.943811</v>
+      </c>
+      <c r="N21">
+        <v>3.887622</v>
+      </c>
+      <c r="O21">
+        <v>0.1513023306716375</v>
+      </c>
+      <c r="P21">
+        <v>0.1062256148138809</v>
+      </c>
+      <c r="Q21">
+        <v>0.193607463222</v>
+      </c>
+      <c r="R21">
+        <v>1.161644779332</v>
+      </c>
+      <c r="S21">
+        <v>0.0008678309318169425</v>
+      </c>
+      <c r="T21">
+        <v>0.0006632947730633834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2421405</v>
+      </c>
+      <c r="H22">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J22">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.123723333333333</v>
+      </c>
+      <c r="N22">
+        <v>3.37117</v>
+      </c>
+      <c r="O22">
+        <v>0.08746835950791242</v>
+      </c>
+      <c r="P22">
+        <v>0.09211404964065718</v>
+      </c>
+      <c r="Q22">
+        <v>4.766992263128333</v>
+      </c>
+      <c r="R22">
+        <v>28.60195357877</v>
+      </c>
+      <c r="S22">
+        <v>0.02136768525772785</v>
+      </c>
+      <c r="T22">
+        <v>0.01633160725700432</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2421405</v>
+      </c>
+      <c r="H23">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J23">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>9.158776666666666</v>
+      </c>
+      <c r="N23">
+        <v>27.47633</v>
+      </c>
+      <c r="O23">
+        <v>0.7129007170798385</v>
+      </c>
+      <c r="P23">
+        <v>0.7507648755663696</v>
+      </c>
+      <c r="Q23">
+        <v>38.85281742812166</v>
+      </c>
+      <c r="R23">
+        <v>233.11690456873</v>
+      </c>
+      <c r="S23">
+        <v>0.1741548398560338</v>
+      </c>
+      <c r="T23">
+        <v>0.1331088703399251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2421405</v>
+      </c>
+      <c r="H24">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J24">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M24">
+        <v>0.247236</v>
+      </c>
+      <c r="N24">
+        <v>0.7417079999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.01924435195908088</v>
+      </c>
+      <c r="P24">
+        <v>0.02026647351835492</v>
+      </c>
+      <c r="Q24">
+        <v>1.048809848658</v>
+      </c>
+      <c r="R24">
+        <v>6.292859091947999</v>
+      </c>
+      <c r="S24">
+        <v>0.004701211477658737</v>
+      </c>
+      <c r="T24">
+        <v>0.003593198727853581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2421405</v>
+      </c>
+      <c r="H25">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J25">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M25">
+        <v>0.373651</v>
+      </c>
+      <c r="N25">
+        <v>1.120953</v>
+      </c>
+      <c r="O25">
+        <v>0.02908424078153073</v>
+      </c>
+      <c r="P25">
+        <v>0.03062898646073725</v>
+      </c>
+      <c r="Q25">
+        <v>1.5850800399655</v>
+      </c>
+      <c r="R25">
+        <v>9.510480239793001</v>
+      </c>
+      <c r="S25">
+        <v>0.007105002385731305</v>
+      </c>
+      <c r="T25">
+        <v>0.005430448227043062</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2421405</v>
+      </c>
+      <c r="H26">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J26">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.943811</v>
+      </c>
+      <c r="N26">
+        <v>3.887622</v>
+      </c>
+      <c r="O26">
+        <v>0.1513023306716375</v>
+      </c>
+      <c r="P26">
+        <v>0.1062256148138809</v>
+      </c>
+      <c r="Q26">
+        <v>8.2459193674455</v>
+      </c>
+      <c r="R26">
+        <v>32.983677469782</v>
+      </c>
+      <c r="S26">
+        <v>0.03696171505605701</v>
+      </c>
+      <c r="T26">
+        <v>0.01883355501730546</v>
       </c>
     </row>
   </sheetData>
